--- a/Companies/Pharmaceuticals & Drugs/Cipla Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
+++ b/Companies/Pharmaceuticals & Drugs/Cipla Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '22</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '22</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '22</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '23</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '23</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '23</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '22</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '22</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '22</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>3,069.83</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3,746.06</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3,541.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3,485.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>3,857.73</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3,485.68</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3,541.16</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3,746.06</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3,069.83</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>3857.73</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>3069.83</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>3540.092</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>405.21</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>358.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>408.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>460.46</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>408.06</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>358.29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>405.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>87.30</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>460.46</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>343.864</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>3,157.13</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4,151.27</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3,899.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3,893.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>4,318.19</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3,893.74</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3,899.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4,151.27</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3,157.13</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>4318.19</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>3157.13</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>3883.956</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>730.18</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>997.51</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>753.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>757.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>887.06</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>757.67</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>753.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>997.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>730.18</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>997.51</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>730.1799999999999</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>825.2699999999999</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>453.77</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>535.62</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>552.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>451.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>701.05</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>451.92</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>552.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>535.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>453.77</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>701.05</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>451.92</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>538.888</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>-38.88</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-11.79</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>52.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>203.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>-133.79</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>203.19</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>52.74</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-11.79</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-38.88</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>203.19</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-133.79</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>14.294</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>484.77</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>599.14</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>591.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>595.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>661.83</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>595.33</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>591.25</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>599.14</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>484.77</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>661.83</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>484.77</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>586.4640000000001</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>107.46</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>176.01</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>129.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>161.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>135.95</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>161.58</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>129.96</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>176.01</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>107.46</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>176.01</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>107.46</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>142.192</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>669.91</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>969.74</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,011.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,085.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>997.35</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1,085.85</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1,011.34</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>969.74</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>669.91</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1085.85</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>669.91</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>946.838</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>749.92</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>885.04</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>808.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>638.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>1,068.74</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>638.20</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>808.15</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>885.04</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>749.92</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>1068.74</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>638.2</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>830.01</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>117.68</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>127.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>119.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>157.98</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>119.71</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>127.12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.28</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>117.68</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>157.98</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>92.28</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>122.954</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>867.60</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>977.32</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>935.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>757.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>1,226.72</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>757.91</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>935.27</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>977.32</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>867.60</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>1226.72</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>757.91</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>952.9639999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>0.31</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.46</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>5.466</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>865.39</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>969.82</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>928.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>747.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>1,226.41</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>747.45</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>928.42</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>969.82</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>865.39</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>1226.41</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>747.45</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>947.4979999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1091,32 +942,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>-185.90</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>-185.9</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>-185.9</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>-185.9</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>865.39</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>969.82</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>928.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>561.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1,226.41</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>561.55</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>928.42</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>969.82</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>865.39</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1226.41</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>561.55</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>910.318</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>221.39</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>264.63</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>249.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>206.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>331.39</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>206.06</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>249.90</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>264.63</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>221.39</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>331.39</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>206.06</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>254.674</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>644.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>705.19</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>678.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>355.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>895.02</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>355.49</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>678.52</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>705.19</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>644.00</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>895.02</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>355.49</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>655.644</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>115.16</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>15.11</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>115.16</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>115.16</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>65.13499999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1291,37 +1097,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>759.16</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>720.30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>678.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>355.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>895.02</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>355.49</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>678.52</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>720.30</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>759.16</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>895.02</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>355.49</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>681.698</v>
       </c>
     </row>
     <row r="24">
@@ -1332,37 +1129,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>161.38</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>161.40</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>161.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>161.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>161.45</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>161.43</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>161.43</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>161.40</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>161.38</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>161.45</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>161.38</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>161.418</v>
       </c>
     </row>
     <row r="25"/>
@@ -1381,37 +1169,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>11.09</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>8.41</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>8.74</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>8.124000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1422,37 +1201,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>11.08</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>8.73</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>8.116</v>
       </c>
     </row>
     <row r="29"/>
@@ -1471,37 +1241,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>11.09</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>8.41</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>6.414</v>
       </c>
     </row>
     <row r="32">
@@ -1512,37 +1273,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>11.08</t>
         </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>6.407999999999999</v>
       </c>
     </row>
     <row r="33"/>
